--- a/Unit_Test_Plan_v0.1.xlsx
+++ b/Unit_Test_Plan_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infosystechnologies-my.sharepoint.com/personal/kamaljeet_kaur01_ad_infosys_com1/Documents/Infosys/CC/Events/Oct 2021 - Mar 2022/CC2.0/Internship/Jan-Apr 2022/Artifacts/internship/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahana\anaconda3\envs\rasa_env\Chatbot_for_Personalized_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9D4FEA-5A3F-460B-9A40-165575443B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BFF35D-4D5A-44E9-8E86-A685242DAA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3B83BB6-2AB9-4547-8541-9F6969E92BF1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3B83BB6-2AB9-4547-8541-9F6969E92BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -134,7 +134,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{13CC6617-E3B1-4BD2-8974-48A96B9A7A57}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,16 +451,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="4" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -478,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -486,7 +488,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -494,7 +496,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -502,7 +504,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -510,7 +512,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
